--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,8 +253,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +595,17 @@
     <col min="14" max="14" width="13.42578125" style="26" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="18"/>
     <col min="19" max="19" width="13" style="26" customWidth="1"/>
     <col min="20" max="20" width="34.42578125" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="34" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" style="21" customWidth="1"/>
     <col min="24" max="24" width="14.140625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -654,7 +658,7 @@
       <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="19" t="s">
@@ -669,7 +673,7 @@
       <c r="U1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="19" t="s">
@@ -684,7 +688,7 @@
       <c r="Z1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -713,14 +717,14 @@
       <c r="S2" s="24"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="32">
+      <c r="V2" s="31">
         <f>SUM(V4:V1410)</f>
         <v>0</v>
       </c>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="32">
+      <c r="AA2" s="31">
         <f>SUM(AA3:AA1200)</f>
         <v>0</v>
       </c>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -74,17 +74,33 @@
   </si>
   <si>
     <t>Rust - Steam</t>
+  </si>
+  <si>
+    <t>Rust - Steam (Refund)</t>
+  </si>
+  <si>
+    <t>CS:GO Steam</t>
+  </si>
+  <si>
+    <t>Naložil denar</t>
+  </si>
+  <si>
+    <t>Nalozil 10€</t>
+  </si>
+  <si>
+    <t>ARK: Survival Evolved - Steam Winter Sale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +111,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,10 +200,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,8 +284,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +616,7 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="18"/>
@@ -602,8 +630,8 @@
     <col min="21" max="21" width="15.5703125" customWidth="1"/>
     <col min="22" max="22" width="19.5703125" style="34" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" style="21" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
     <col min="27" max="27" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -614,7 +642,7 @@
       </c>
       <c r="B1" s="8">
         <f>G2+L2+Q2+V2+AA2</f>
-        <v>12.540000000000004</v>
+        <v>25.46</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>4</v>
@@ -698,14 +726,14 @@
       <c r="F2" s="13"/>
       <c r="G2" s="30">
         <f>SUM(G3:G2334)</f>
-        <v>4.01</v>
+        <v>14.01</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="31">
         <f>SUM(L3:L1972)</f>
-        <v>8.01</v>
+        <v>10.93</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="13"/>
@@ -778,10 +806,19 @@
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
       <c r="W3" s="20"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="7"/>
+      <c r="X3" s="10">
+        <v>42365</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>16.79</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>+Z3</f>
+        <v>16.79</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C4" s="15"/>
@@ -831,10 +868,20 @@
       <c r="U4" s="11"/>
       <c r="V4" s="7"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="7"/>
+      <c r="X4" s="10">
+        <v>42365</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="11">
+        <f>Z3</f>
+        <v>16.79</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>-AA3</f>
+        <v>-16.79</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="15"/>
@@ -851,10 +898,19 @@
         <v>-5</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
+      <c r="I5" s="10">
+        <v>42362</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="35">
+        <v>5.49</v>
+      </c>
+      <c r="L5" s="7">
+        <f>-K5</f>
+        <v>-5.49</v>
+      </c>
       <c r="M5" s="15"/>
       <c r="N5" s="10">
         <v>42314</v>
@@ -895,10 +951,18 @@
         <v>-0.99</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="10">
+        <v>42364</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6.99</v>
+      </c>
+      <c r="L6" s="7">
+        <v>6.99</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="10">
         <v>42314</v>
@@ -926,15 +990,33 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="10">
+        <v>42365</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
+        <f>+F7</f>
+        <v>10</v>
+      </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="10">
+        <v>42365</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9">
+        <v>18.21</v>
+      </c>
+      <c r="L7" s="7">
+        <f>+K7</f>
+        <v>18.21</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="10"/>
       <c r="O7" s="3"/>
@@ -958,10 +1040,19 @@
       <c r="F8" s="9"/>
       <c r="G8" s="7"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="I8" s="10">
+        <v>42365</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="9">
+        <v>16.79</v>
+      </c>
+      <c r="L8" s="7">
+        <f>-K8</f>
+        <v>-16.79</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="N8" s="10"/>
       <c r="O8" s="3"/>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -602,7 +602,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="B1" s="8">
         <f>G2+L2+Q2+V2+AA2</f>
-        <v>25.46</v>
+        <v>15.460000000000004</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>4</v>
@@ -726,7 +726,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="30">
         <f>SUM(G3:G2334)</f>
-        <v>14.01</v>
+        <v>4.01</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="22"/>
@@ -1035,10 +1035,19 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="10">
+        <v>42370</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <f>-F8</f>
+        <v>-10</v>
+      </c>
       <c r="H8" s="15"/>
       <c r="I8" s="10">
         <v>42365</v>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -289,8 +289,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Vejica" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -313,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +353,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="B1" s="8">
         <f>G2+L2+Q2+V2+AA2</f>
-        <v>15.460000000000004</v>
+        <v>35.46</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>4</v>
@@ -740,7 +740,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="31">
         <f>SUM(Q3:Q1580)</f>
-        <v>0.5200000000000049</v>
+        <v>20.520000000000003</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="12"/>
@@ -1018,10 +1018,19 @@
         <v>18.21</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="7"/>
+      <c r="N7" s="10">
+        <v>42010</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>+P7</f>
+        <v>20</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="10"/>
       <c r="T7" s="3"/>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ARK: Survival Evolved - Steam Winter Sale</t>
+  </si>
+  <si>
+    <t>Payment For Mike Ford - Steam</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +290,7 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -602,7 +606,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +625,7 @@
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="18"/>
     <col min="14" max="14" width="13.42578125" style="26" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="18"/>
@@ -642,7 +646,7 @@
       </c>
       <c r="B1" s="8">
         <f>G2+L2+Q2+V2+AA2</f>
-        <v>35.46</v>
+        <v>17.480000000000004</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>4</v>
@@ -740,7 +744,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="31">
         <f>SUM(Q3:Q1580)</f>
-        <v>20.520000000000003</v>
+        <v>2.5400000000000027</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="12"/>
@@ -1072,10 +1076,19 @@
         <v>-16.79</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="7"/>
+      <c r="N8" s="10">
+        <v>42010</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="33">
+        <v>17.98</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>-P8</f>
+        <v>-17.98</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="10"/>
       <c r="T8" s="3"/>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -92,6 +92,36 @@
   </si>
   <si>
     <t>Payment For Mike Ford - Steam</t>
+  </si>
+  <si>
+    <t>Marketplace.tf 8X Frying Pan</t>
+  </si>
+  <si>
+    <t>Naložil 30€</t>
+  </si>
+  <si>
+    <t>ARK: Survival Evolved - Steam</t>
+  </si>
+  <si>
+    <t>Gasper</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Hudini</t>
+  </si>
+  <si>
+    <t>Lovro</t>
+  </si>
+  <si>
+    <t>Grega</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Karmen</t>
   </si>
 </sst>
 </file>
@@ -170,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,12 +232,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,7 +333,19 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -603,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,15 +693,44 @@
     <col min="25" max="25" width="38.5703125" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
     <col min="27" max="27" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" customWidth="1"/>
+    <col min="40" max="40" width="19.140625" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" customWidth="1"/>
+    <col min="42" max="42" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" customWidth="1"/>
+    <col min="46" max="46" width="14" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
+    <col min="48" max="48" width="9.85546875" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" customWidth="1"/>
+    <col min="51" max="51" width="11.85546875" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" customWidth="1"/>
+    <col min="53" max="53" width="8.42578125" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" customWidth="1"/>
+    <col min="56" max="57" width="17.42578125" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" customWidth="1"/>
+    <col min="61" max="61" width="15" customWidth="1"/>
+    <col min="62" max="62" width="18.42578125" customWidth="1"/>
+    <col min="66" max="66" width="15.5703125" customWidth="1"/>
+    <col min="67" max="67" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="8">
         <f>G2+L2+Q2+V2+AA2</f>
-        <v>17.480000000000004</v>
+        <v>23.840000000000003</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>4</v>
@@ -723,14 +807,134 @@
       <c r="AA1" s="32" t="s">
         <v>3</v>
       </c>
+      <c r="AB1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO1" s="32" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="D2" s="27"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="30">
         <f>SUM(G3:G2334)</f>
-        <v>4.01</v>
+        <v>3.05</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="22"/>
@@ -744,7 +948,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="31">
         <f>SUM(Q3:Q1580)</f>
-        <v>2.5400000000000027</v>
+        <v>9.860000000000003</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="12"/>
@@ -760,8 +964,72 @@
         <f>SUM(AA3:AA1200)</f>
         <v>0</v>
       </c>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="31">
+        <f>SUM(AF4:AF1410)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="31">
+        <f>SUM(AK4:AK1410)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="31">
+        <f>SUM(AP4:AP1410)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="31">
+        <f>SUM(AU4:AU1410)</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="31">
+        <f>SUM(AZ4:AZ1410)</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="31">
+        <f>SUM(BE4:BE1410)</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="31">
+        <f>SUM(BJ4:BJ1410)</f>
+        <v>0</v>
+      </c>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="31">
+        <f>SUM(BO4:BO1410)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
       <c r="D3" s="10">
         <v>42314</v>
@@ -823,8 +1091,48 @@
         <f>+Z3</f>
         <v>16.79</v>
       </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="7"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C4" s="15"/>
       <c r="D4" s="10">
         <v>42314</v>
@@ -886,8 +1194,48 @@
         <f>-AA3</f>
         <v>-16.79</v>
       </c>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C5" s="15"/>
       <c r="D5" s="10">
         <v>42322</v>
@@ -939,8 +1287,48 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="7"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="7"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C6" s="15"/>
       <c r="D6" s="10">
         <v>42333</v>
@@ -991,8 +1379,48 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="7"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="7"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
       <c r="D7" s="10">
         <v>42365</v>
@@ -1023,7 +1451,7 @@
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="10">
-        <v>42010</v>
+        <v>42375</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>5</v>
@@ -1045,8 +1473,48 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="7"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="10">
         <v>42370</v>
@@ -1076,18 +1544,18 @@
         <v>-16.79</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="10">
-        <v>42010</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="37">
+        <v>42375</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="33">
-        <v>17.98</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>12.67</v>
+      </c>
+      <c r="Q8" s="38">
         <f>-P8</f>
-        <v>-17.98</v>
+        <v>-12.67</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="10"/>
@@ -1099,6 +1567,89 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="7"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="7"/>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="D9" s="10">
+        <v>42406</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="G9" s="40">
+        <f>-F9</f>
+        <v>-0.96</v>
+      </c>
+      <c r="N9" s="10">
+        <v>42401</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>+P9</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="N10" s="10">
+        <v>42401</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8">
+        <v>27.99</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>-P10</f>
+        <v>-27.99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="David" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>Karmen</t>
+  </si>
+  <si>
+    <t>Payment to CCP Games UK</t>
+  </si>
+  <si>
+    <t>Nalozil 15€</t>
+  </si>
+  <si>
+    <t>Naložil 15€</t>
+  </si>
+  <si>
+    <t>EVE Online - CCP Games UK</t>
+  </si>
+  <si>
+    <t>Sposodil 5€ od Gala</t>
+  </si>
+  <si>
+    <t>Plačilo k Gašperju</t>
   </si>
 </sst>
 </file>
@@ -261,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +407,36 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +791,7 @@
       </c>
       <c r="G1" s="8">
         <f>E2+Miha!E2+Gal!E2+Žan!E2+Knupi!E2</f>
-        <v>21.840000000000003</v>
+        <v>36.89</v>
       </c>
       <c r="BA1" s="46"/>
       <c r="BB1" s="49"/>
@@ -1177,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1263,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="31">
         <f>SUM(E3:E1972)</f>
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,17 +1361,54 @@
         <v>-16.79</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="54">
+        <v>42409</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="54">
+        <v>42409</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14.95</v>
+      </c>
+      <c r="E10" s="7">
+        <f>-D10</f>
+        <v>-14.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="55"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1416,7 @@
     <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="13.42578125" style="26" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1345,7 +1430,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="32" t="s">
@@ -1355,10 +1440,10 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="31">
         <f>SUM(E3:E1580)</f>
-        <v>7.860000000000003</v>
+        <v>2.860000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,7 +1454,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="60">
         <v>47</v>
       </c>
       <c r="E3" s="7">
@@ -1385,7 +1470,7 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="65">
         <v>4.87</v>
       </c>
       <c r="E4" s="7">
@@ -1401,7 +1486,7 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="60">
         <v>39.369999999999997</v>
       </c>
       <c r="E5" s="7">
@@ -1417,7 +1502,7 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="65">
         <v>2.2400000000000002</v>
       </c>
       <c r="E6" s="7">
@@ -1433,7 +1518,7 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="60">
         <v>20</v>
       </c>
       <c r="E7" s="7">
@@ -1485,6 +1570,21 @@
       <c r="E10" s="7">
         <f>-D10</f>
         <v>-27.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>42407</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
+        <f>-D11</f>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -1497,15 +1597,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="13" style="26" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" style="58" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="62" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1519,7 +1619,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="32" t="s">
@@ -1527,20 +1627,29 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="31">
-        <f>SUM(E4:E1410)</f>
-        <v>0</v>
+        <f>SUM(E3:E1410)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="57">
+        <v>42409</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <f>D3</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -1553,7 +1662,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,14 +1676,14 @@
       <c r="A7" s="15"/>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="7"/>
     </row>
   </sheetData>
@@ -1695,16 +1804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1718,7 +1827,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="32" t="s">
@@ -1727,54 +1836,81 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="31">
-        <f>SUM(E4:E1410)</f>
-        <v>0</v>
+        <f>SUM(E3:E1410)</f>
+        <v>5.0000000000000711E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="57">
+        <v>42409</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="65">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <f>+D3</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="57">
+        <v>42409</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="33">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <f>+D4</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="57">
+        <v>42409</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="60">
+        <v>19.95</v>
+      </c>
+      <c r="E5" s="7">
+        <f>-D5</f>
+        <v>-19.95</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="7"/>
     </row>
   </sheetData>

--- a/apps/meppho/Stanje_Meppho.xlsx
+++ b/apps/meppho/Stanje_Meppho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="David" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Gal" sheetId="3" r:id="rId3"/>
     <sheet name="Žan" sheetId="4" r:id="rId4"/>
     <sheet name="Knupi" sheetId="5" r:id="rId5"/>
-    <sheet name="Gasper" sheetId="6" r:id="rId6"/>
+    <sheet name="Pevc" sheetId="6" r:id="rId6"/>
     <sheet name="Pia" sheetId="7" r:id="rId7"/>
     <sheet name="Hudini" sheetId="8" r:id="rId8"/>
     <sheet name="Lovro" sheetId="9" r:id="rId9"/>
@@ -114,9 +114,6 @@
     <t>ARK: Survival Evolved - Steam</t>
   </si>
   <si>
-    <t>Gasper</t>
-  </si>
-  <si>
     <t>Pia</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Plačilo k Gašperju</t>
+  </si>
+  <si>
+    <t>Pevc</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +974,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1063,7 +1063,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1151,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>42409</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8">
         <v>15</v>
@@ -1381,7 +1381,7 @@
         <v>42409</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>14.95</v>
@@ -1577,7 +1577,7 @@
         <v>42407</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8">
         <v>5</v>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>42409</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="65">
         <v>15</v>
@@ -1866,7 +1866,7 @@
         <v>42409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="33">
         <v>5</v>
@@ -1882,7 +1882,7 @@
         <v>42409</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="60">
         <v>19.95</v>
@@ -1936,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -2027,7 +2027,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -2116,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
